--- a/biology/Zoologie/Amphiprion_sebae/Amphiprion_sebae.xlsx
+++ b/biology/Zoologie/Amphiprion_sebae/Amphiprion_sebae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-clown de Seba[1] (Amphiprion sebae)  est une espèce de poissons osseux de la famille des pomacentridés. Il est présent de la mer d'Arabie jusqu'à l'ouest de l'Indonésie[1] et mesure jusqu'à 14 cm[1].
-Le poisson-clown de Seba s'associe avec l'anémone de mer Stichodactyla haddoni[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-clown de Seba (Amphiprion sebae)  est une espèce de poissons osseux de la famille des pomacentridés. Il est présent de la mer d'Arabie jusqu'à l'ouest de l'Indonésie et mesure jusqu'à 14 cm.
+Le poisson-clown de Seba s'associe avec l'anémone de mer Stichodactyla haddoni.
 </t>
         </is>
       </c>
